--- a/fuentes/contenidos/grado06/guion14/CS_06_14_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion14/CS_06_14_CO_Escaleta.xlsx
@@ -795,7 +795,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -865,6 +865,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -987,7 +995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1014,9 +1022,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1121,6 +1126,30 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1131,12 +1160,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1170,18 +1193,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1491,8 +1502,8 @@
   <dimension ref="A1:U121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,199 +1511,199 @@
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="43.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29" style="32" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" style="30" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="45.42578125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="29" style="31" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="33" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="62.5703125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="62.5703125" style="30" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
     <col min="15" max="15" width="23.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="28" customWidth="1"/>
-    <col min="18" max="18" width="23" style="29" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" style="28" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="27" customWidth="1"/>
+    <col min="18" max="18" width="23" style="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:21" s="22" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="81" t="s">
+      <c r="K1" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="79" t="s">
+      <c r="L1" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="83"/>
-      <c r="O1" s="73" t="s">
+      <c r="N1" s="88"/>
+      <c r="O1" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="73" t="s">
+      <c r="P1" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="86" t="s">
+      <c r="Q1" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="88" t="s">
+      <c r="R1" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="86" t="s">
+      <c r="S1" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="88" t="s">
+      <c r="T1" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="86" t="s">
+      <c r="U1" s="72" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="24" t="s">
+    <row r="2" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="83"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="87"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="73"/>
     </row>
     <row r="3" spans="1:21" ht="105.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="68" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="24">
         <v>1</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="65" t="s">
+      <c r="I3" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="17" t="s">
+      <c r="K3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="38" t="s">
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="P3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="21">
+      <c r="P3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="20">
         <v>6</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="T3" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="20" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52" t="s">
+      <c r="F4" s="50"/>
+      <c r="G4" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="52">
         <v>2</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="37" t="s">
+      <c r="I4" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="36" t="s">
         <v>135</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -1724,32 +1735,32 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52" t="s">
+      <c r="F5" s="50"/>
+      <c r="G5" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="52">
         <v>3</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="36" t="s">
         <v>138</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -1781,34 +1792,34 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="52">
         <v>4</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="37" t="s">
+      <c r="I6" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="36" t="s">
         <v>142</v>
       </c>
       <c r="K6" s="7" t="s">
@@ -1840,34 +1851,34 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="52">
         <v>5</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="36" t="s">
         <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -1899,34 +1910,34 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="52">
         <v>6</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="64" t="s">
+      <c r="I8" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="63" t="s">
         <v>146</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -1958,34 +1969,34 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="52">
         <v>7</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="37" t="s">
+      <c r="I9" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="36" t="s">
         <v>149</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -2017,34 +2028,34 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="52">
         <v>8</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="62" t="s">
         <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
@@ -2076,34 +2087,34 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="52">
         <v>9</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="37" t="s">
+      <c r="I11" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="36" t="s">
         <v>159</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -2135,34 +2146,34 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="52">
         <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="63" t="s">
         <v>161</v>
       </c>
       <c r="K12" s="7" t="s">
@@ -2194,35 +2205,35 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="36" t="s">
+      <c r="F13" s="50"/>
+      <c r="G13" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="52">
         <v>11</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="48" t="s">
+      <c r="J13" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="38" t="s">
         <v>20</v>
       </c>
       <c r="L13" s="6" t="s">
@@ -2245,7 +2256,7 @@
       <c r="S13" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="T13" s="35" t="s">
+      <c r="T13" s="34" t="s">
         <v>169</v>
       </c>
       <c r="U13" s="10" t="s">
@@ -2253,32 +2264,32 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52" t="s">
+      <c r="F14" s="50"/>
+      <c r="G14" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="52">
         <v>12</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="64" t="s">
+      <c r="J14" s="63" t="s">
         <v>173</v>
       </c>
       <c r="K14" s="7" t="s">
@@ -2310,32 +2321,32 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="36" t="s">
+      <c r="F15" s="50"/>
+      <c r="G15" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="52">
         <v>13</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="64" t="s">
+      <c r="I15" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="63" t="s">
         <v>178</v>
       </c>
       <c r="K15" s="7" t="s">
@@ -2367,34 +2378,34 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="52">
         <v>14</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="65" t="s">
+      <c r="I16" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="64" t="s">
         <v>180</v>
       </c>
       <c r="K16" s="7" t="s">
@@ -2426,34 +2437,34 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="52">
         <v>15</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="J17" s="36" t="s">
         <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
@@ -2485,35 +2496,35 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="67" t="s">
+      <c r="F18" s="50"/>
+      <c r="G18" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="52">
         <v>16</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="K18" s="38" t="s">
         <v>20</v>
       </c>
       <c r="L18" s="6" t="s">
@@ -2536,7 +2547,7 @@
       <c r="S18" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="T18" s="35" t="s">
+      <c r="T18" s="34" t="s">
         <v>186</v>
       </c>
       <c r="U18" s="10" t="s">
@@ -2544,30 +2555,30 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52" t="s">
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="52">
         <v>17</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="37" t="s">
+      <c r="I19" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="36" t="s">
         <v>188</v>
       </c>
       <c r="K19" s="7" t="s">
@@ -2599,32 +2610,32 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52" t="s">
+      <c r="F20" s="50"/>
+      <c r="G20" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="H20" s="53">
+      <c r="H20" s="52">
         <v>18</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="49" t="s">
+      <c r="I20" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="48" t="s">
         <v>191</v>
       </c>
       <c r="K20" s="7" t="s">
@@ -2656,32 +2667,32 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="F21" s="51"/>
-      <c r="G21" s="36" t="s">
+      <c r="F21" s="50"/>
+      <c r="G21" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="H21" s="53">
-        <v>19</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="49" t="s">
+      <c r="H21" s="52">
+        <v>19</v>
+      </c>
+      <c r="I21" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="48" t="s">
         <v>194</v>
       </c>
       <c r="K21" s="7" t="s">
@@ -2713,34 +2724,34 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="F22" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="H22" s="53">
+      <c r="H22" s="52">
         <v>20</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="49" t="s">
+      <c r="I22" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="48" t="s">
         <v>198</v>
       </c>
       <c r="K22" s="7" t="s">
@@ -2772,32 +2783,32 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="52" t="s">
+      <c r="F23" s="50"/>
+      <c r="G23" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="H23" s="53">
+      <c r="H23" s="52">
         <v>21</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="64" t="s">
+      <c r="I23" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="63" t="s">
         <v>201</v>
       </c>
       <c r="K23" s="7" t="s">
@@ -2829,32 +2840,32 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="36" t="s">
+      <c r="F24" s="50"/>
+      <c r="G24" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="H24" s="53">
+      <c r="H24" s="52">
         <v>22</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="63" t="s">
+      <c r="J24" s="62" t="s">
         <v>203</v>
       </c>
       <c r="K24" s="7" t="s">
@@ -2886,32 +2897,32 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="36" t="s">
+      <c r="F25" s="50"/>
+      <c r="G25" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="H25" s="53">
+      <c r="H25" s="52">
         <v>23</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="37" t="s">
+      <c r="I25" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="36" t="s">
         <v>206</v>
       </c>
       <c r="K25" s="7" t="s">
@@ -2943,32 +2954,32 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="36" t="s">
+      <c r="F26" s="50"/>
+      <c r="G26" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="H26" s="53">
+      <c r="H26" s="52">
         <v>24</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="63" t="s">
+      <c r="J26" s="62" t="s">
         <v>209</v>
       </c>
       <c r="K26" s="7" t="s">
@@ -3000,32 +3011,32 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="F27" s="51"/>
-      <c r="G27" s="52" t="s">
+      <c r="F27" s="50"/>
+      <c r="G27" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="H27" s="53">
+      <c r="H27" s="52">
         <v>25</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="64" t="s">
+      <c r="J27" s="63" t="s">
         <v>210</v>
       </c>
       <c r="K27" s="7" t="s">
@@ -3057,35 +3068,35 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="51"/>
-      <c r="G28" s="67" t="s">
+      <c r="F28" s="50"/>
+      <c r="G28" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="H28" s="53">
+      <c r="H28" s="52">
         <v>26</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="48" t="s">
+      <c r="J28" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="K28" s="39" t="s">
+      <c r="K28" s="38" t="s">
         <v>20</v>
       </c>
       <c r="L28" s="6" t="s">
@@ -3108,7 +3119,7 @@
       <c r="S28" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="T28" s="35" t="s">
+      <c r="T28" s="34" t="s">
         <v>215</v>
       </c>
       <c r="U28" s="10" t="s">
@@ -3116,34 +3127,34 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="H29" s="53">
+      <c r="H29" s="52">
         <v>27</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="66" t="s">
+      <c r="I29" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="65" t="s">
         <v>219</v>
       </c>
       <c r="K29" s="7" t="s">
@@ -3175,34 +3186,34 @@
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="H30" s="53">
+      <c r="H30" s="52">
         <v>28</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="64" t="s">
+      <c r="J30" s="63" t="s">
         <v>221</v>
       </c>
       <c r="K30" s="7" t="s">
@@ -3234,34 +3245,34 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="F31" s="51" t="s">
+      <c r="F31" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="H31" s="53">
+      <c r="H31" s="52">
         <v>29</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="64" t="s">
+      <c r="I31" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="63" t="s">
         <v>224</v>
       </c>
       <c r="K31" s="7" t="s">
@@ -3293,34 +3304,34 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="F32" s="51" t="s">
+      <c r="F32" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="G32" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="H32" s="53">
+      <c r="H32" s="52">
         <v>30</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="48" t="s">
+      <c r="J32" s="47" t="s">
         <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
@@ -3352,32 +3363,32 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="F33" s="51"/>
-      <c r="G33" s="36" t="s">
+      <c r="F33" s="50"/>
+      <c r="G33" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="H33" s="53">
+      <c r="H33" s="52">
         <v>31</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="64" t="s">
+      <c r="I33" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="63" t="s">
         <v>229</v>
       </c>
       <c r="K33" s="7" t="s">
@@ -3409,32 +3420,32 @@
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="D34" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="F34" s="51"/>
-      <c r="G34" s="36" t="s">
+      <c r="F34" s="50"/>
+      <c r="G34" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="H34" s="53">
+      <c r="H34" s="52">
         <v>32</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="48" t="s">
+      <c r="J34" s="47" t="s">
         <v>231</v>
       </c>
       <c r="K34" s="7" t="s">
@@ -3466,32 +3477,32 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="61" t="s">
+      <c r="D35" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="F35" s="51"/>
-      <c r="G35" s="55" t="s">
+      <c r="F35" s="50"/>
+      <c r="G35" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="H35" s="53">
+      <c r="H35" s="52">
         <v>33</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="66" t="s">
+      <c r="I35" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="65" t="s">
         <v>234</v>
       </c>
       <c r="K35" s="7" t="s">
@@ -3523,37 +3534,37 @@
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="61" t="s">
+      <c r="D36" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="F36" s="51" t="s">
+      <c r="F36" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="G36" s="67" t="s">
+      <c r="G36" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="H36" s="53">
+      <c r="H36" s="52">
         <v>34</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="37" t="s">
+      <c r="J36" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="K36" s="39" t="s">
+      <c r="K36" s="38" t="s">
         <v>20</v>
       </c>
       <c r="L36" s="6" t="s">
@@ -3576,7 +3587,7 @@
       <c r="S36" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="T36" s="35" t="s">
+      <c r="T36" s="34" t="s">
         <v>254</v>
       </c>
       <c r="U36" s="10" t="s">
@@ -3584,30 +3595,30 @@
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="62" t="s">
+      <c r="D37" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="E37" s="56"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="58" t="s">
+      <c r="E37" s="55"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="H37" s="59">
+      <c r="H37" s="58">
         <v>35</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="48" t="s">
+      <c r="J37" s="47" t="s">
         <v>243</v>
       </c>
       <c r="K37" s="7" t="s">
@@ -3639,30 +3650,30 @@
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="62" t="s">
+      <c r="D38" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="E38" s="56"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="58" t="s">
+      <c r="E38" s="55"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="H38" s="59">
+      <c r="H38" s="58">
         <v>36</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="48" t="s">
+      <c r="J38" s="47" t="s">
         <v>245</v>
       </c>
       <c r="K38" s="7" t="s">
@@ -3694,31 +3705,31 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="62" t="s">
+      <c r="D39" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="E39" s="56"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="58" t="s">
+      <c r="E39" s="55"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="H39" s="59">
+      <c r="H39" s="58">
         <v>37</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="37"/>
-      <c r="K39" s="39" t="s">
+      <c r="J39" s="36"/>
+      <c r="K39" s="38" t="s">
         <v>20</v>
       </c>
       <c r="L39" s="6" t="s">
@@ -3737,31 +3748,31 @@
       <c r="U39" s="10"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="62" t="s">
+      <c r="D40" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="E40" s="56"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="58" t="s">
+      <c r="E40" s="55"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="H40" s="59">
+      <c r="H40" s="58">
         <v>38</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="37"/>
-      <c r="K40" s="39" t="s">
+      <c r="J40" s="36"/>
+      <c r="K40" s="38" t="s">
         <v>20</v>
       </c>
       <c r="L40" s="6" t="s">
@@ -3784,7 +3795,7 @@
       <c r="S40" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="T40" s="35" t="s">
+      <c r="T40" s="34" t="s">
         <v>248</v>
       </c>
       <c r="U40" s="10" t="s">
@@ -3792,29 +3803,29 @@
       </c>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="62"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="58" t="s">
+      <c r="D41" s="61"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="H41" s="59">
+      <c r="H41" s="58">
         <v>39</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="37"/>
-      <c r="K41" s="39" t="s">
+      <c r="J41" s="36"/>
+      <c r="K41" s="38" t="s">
         <v>20</v>
       </c>
       <c r="L41" s="6" t="s">
@@ -3837,7 +3848,7 @@
       <c r="S41" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="T41" s="35" t="s">
+      <c r="T41" s="34" t="s">
         <v>249</v>
       </c>
       <c r="U41" s="10" t="s">
@@ -3845,18 +3856,18 @@
       </c>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="53"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="52"/>
       <c r="I42" s="5"/>
       <c r="J42" s="15"/>
       <c r="K42" s="7"/>
@@ -3872,14 +3883,14 @@
       <c r="U42" s="10"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="53"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="52"/>
       <c r="I43" s="5"/>
       <c r="J43" s="15"/>
       <c r="K43" s="7"/>
@@ -3895,14 +3906,14 @@
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="53"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="52"/>
       <c r="I44" s="5"/>
       <c r="J44" s="15"/>
       <c r="K44" s="7"/>
@@ -3918,14 +3929,14 @@
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="45"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="44"/>
       <c r="F45" s="9"/>
       <c r="G45" s="15"/>
-      <c r="H45" s="26"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="5"/>
       <c r="J45" s="15"/>
       <c r="K45" s="7"/>
@@ -3948,7 +3959,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="9"/>
       <c r="G46" s="15"/>
-      <c r="H46" s="26"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="5"/>
       <c r="J46" s="15"/>
       <c r="K46" s="7"/>
@@ -3971,7 +3982,7 @@
       <c r="E47" s="12"/>
       <c r="F47" s="9"/>
       <c r="G47" s="15"/>
-      <c r="H47" s="26"/>
+      <c r="H47" s="25"/>
       <c r="I47" s="5"/>
       <c r="J47" s="15"/>
       <c r="K47" s="7"/>
@@ -3994,7 +4005,7 @@
       <c r="E48" s="12"/>
       <c r="F48" s="9"/>
       <c r="G48" s="15"/>
-      <c r="H48" s="26"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="5"/>
       <c r="J48" s="15"/>
       <c r="K48" s="7"/>
@@ -4017,7 +4028,7 @@
       <c r="E49" s="12"/>
       <c r="F49" s="9"/>
       <c r="G49" s="15"/>
-      <c r="H49" s="26"/>
+      <c r="H49" s="25"/>
       <c r="I49" s="5"/>
       <c r="J49" s="15"/>
       <c r="K49" s="7"/>
@@ -4040,7 +4051,7 @@
       <c r="E50" s="12"/>
       <c r="F50" s="9"/>
       <c r="G50" s="15"/>
-      <c r="H50" s="26"/>
+      <c r="H50" s="25"/>
       <c r="I50" s="5"/>
       <c r="J50" s="15"/>
       <c r="K50" s="7"/>
@@ -4063,7 +4074,7 @@
       <c r="E51" s="12"/>
       <c r="F51" s="9"/>
       <c r="G51" s="15"/>
-      <c r="H51" s="26"/>
+      <c r="H51" s="25"/>
       <c r="I51" s="5"/>
       <c r="J51" s="15"/>
       <c r="K51" s="7"/>
@@ -4086,7 +4097,7 @@
       <c r="E52" s="12"/>
       <c r="F52" s="9"/>
       <c r="G52" s="15"/>
-      <c r="H52" s="26"/>
+      <c r="H52" s="25"/>
       <c r="I52" s="5"/>
       <c r="J52" s="15"/>
       <c r="K52" s="7"/>
@@ -4109,7 +4120,7 @@
       <c r="E53" s="12"/>
       <c r="F53" s="9"/>
       <c r="G53" s="15"/>
-      <c r="H53" s="26"/>
+      <c r="H53" s="25"/>
       <c r="I53" s="5"/>
       <c r="J53" s="15"/>
       <c r="K53" s="7"/>
@@ -4132,7 +4143,7 @@
       <c r="E54" s="12"/>
       <c r="F54" s="9"/>
       <c r="G54" s="15"/>
-      <c r="H54" s="26"/>
+      <c r="H54" s="25"/>
       <c r="I54" s="5"/>
       <c r="J54" s="15"/>
       <c r="K54" s="7"/>
@@ -4155,7 +4166,7 @@
       <c r="E55" s="12"/>
       <c r="F55" s="9"/>
       <c r="G55" s="15"/>
-      <c r="H55" s="26"/>
+      <c r="H55" s="25"/>
       <c r="I55" s="5"/>
       <c r="J55" s="15"/>
       <c r="K55" s="7"/>
@@ -4178,7 +4189,7 @@
       <c r="E56" s="12"/>
       <c r="F56" s="9"/>
       <c r="G56" s="15"/>
-      <c r="H56" s="26"/>
+      <c r="H56" s="25"/>
       <c r="I56" s="5"/>
       <c r="J56" s="15"/>
       <c r="K56" s="7"/>
@@ -4201,7 +4212,7 @@
       <c r="E57" s="12"/>
       <c r="F57" s="9"/>
       <c r="G57" s="15"/>
-      <c r="H57" s="26"/>
+      <c r="H57" s="25"/>
       <c r="I57" s="5"/>
       <c r="J57" s="15"/>
       <c r="K57" s="7"/>
@@ -4224,7 +4235,7 @@
       <c r="E58" s="12"/>
       <c r="F58" s="9"/>
       <c r="G58" s="15"/>
-      <c r="H58" s="26"/>
+      <c r="H58" s="25"/>
       <c r="I58" s="5"/>
       <c r="J58" s="15"/>
       <c r="K58" s="7"/>
@@ -4247,7 +4258,7 @@
       <c r="E59" s="12"/>
       <c r="F59" s="9"/>
       <c r="G59" s="15"/>
-      <c r="H59" s="26"/>
+      <c r="H59" s="25"/>
       <c r="I59" s="5"/>
       <c r="J59" s="15"/>
       <c r="K59" s="7"/>
@@ -4270,7 +4281,7 @@
       <c r="E60" s="12"/>
       <c r="F60" s="9"/>
       <c r="G60" s="15"/>
-      <c r="H60" s="26"/>
+      <c r="H60" s="25"/>
       <c r="I60" s="5"/>
       <c r="J60" s="15"/>
       <c r="K60" s="7"/>
@@ -4293,7 +4304,7 @@
       <c r="E61" s="12"/>
       <c r="F61" s="9"/>
       <c r="G61" s="15"/>
-      <c r="H61" s="26"/>
+      <c r="H61" s="25"/>
       <c r="I61" s="5"/>
       <c r="J61" s="15"/>
       <c r="K61" s="7"/>
@@ -4316,7 +4327,7 @@
       <c r="E62" s="12"/>
       <c r="F62" s="9"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="26"/>
+      <c r="H62" s="25"/>
       <c r="I62" s="5"/>
       <c r="J62" s="15"/>
       <c r="K62" s="7"/>
@@ -4339,7 +4350,7 @@
       <c r="E63" s="12"/>
       <c r="F63" s="9"/>
       <c r="G63" s="15"/>
-      <c r="H63" s="26"/>
+      <c r="H63" s="25"/>
       <c r="I63" s="5"/>
       <c r="J63" s="15"/>
       <c r="K63" s="7"/>
@@ -4362,7 +4373,7 @@
       <c r="E64" s="12"/>
       <c r="F64" s="9"/>
       <c r="G64" s="15"/>
-      <c r="H64" s="26"/>
+      <c r="H64" s="25"/>
       <c r="I64" s="5"/>
       <c r="J64" s="15"/>
       <c r="K64" s="7"/>
@@ -4385,7 +4396,7 @@
       <c r="E65" s="12"/>
       <c r="F65" s="9"/>
       <c r="G65" s="15"/>
-      <c r="H65" s="26"/>
+      <c r="H65" s="25"/>
       <c r="I65" s="5"/>
       <c r="J65" s="15"/>
       <c r="K65" s="7"/>
@@ -4408,7 +4419,7 @@
       <c r="E66" s="12"/>
       <c r="F66" s="9"/>
       <c r="G66" s="15"/>
-      <c r="H66" s="26"/>
+      <c r="H66" s="25"/>
       <c r="I66" s="5"/>
       <c r="J66" s="15"/>
       <c r="K66" s="7"/>
@@ -4431,7 +4442,7 @@
       <c r="E67" s="12"/>
       <c r="F67" s="9"/>
       <c r="G67" s="15"/>
-      <c r="H67" s="26"/>
+      <c r="H67" s="25"/>
       <c r="I67" s="5"/>
       <c r="J67" s="15"/>
       <c r="K67" s="7"/>
@@ -4454,7 +4465,7 @@
       <c r="E68" s="12"/>
       <c r="F68" s="9"/>
       <c r="G68" s="15"/>
-      <c r="H68" s="26"/>
+      <c r="H68" s="25"/>
       <c r="I68" s="5"/>
       <c r="J68" s="15"/>
       <c r="K68" s="7"/>
@@ -4477,7 +4488,7 @@
       <c r="E69" s="12"/>
       <c r="F69" s="9"/>
       <c r="G69" s="15"/>
-      <c r="H69" s="26"/>
+      <c r="H69" s="25"/>
       <c r="I69" s="5"/>
       <c r="J69" s="15"/>
       <c r="K69" s="7"/>
@@ -4500,7 +4511,7 @@
       <c r="E70" s="12"/>
       <c r="F70" s="9"/>
       <c r="G70" s="15"/>
-      <c r="H70" s="26"/>
+      <c r="H70" s="25"/>
       <c r="I70" s="5"/>
       <c r="J70" s="15"/>
       <c r="K70" s="7"/>
@@ -4702,12 +4713,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4722,6 +4727,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
